--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/test-manager-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{565D7E49-D65A-D04D-B1F4-CC962CB3D6D7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -287,8 +294,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -633,16 +640,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:AMK14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:N14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="44.59765625" style="1" customWidth="1"/>
@@ -654,11 +661,11 @@
     <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.59765625" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.3984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="1" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -722,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -751,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -780,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -809,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -838,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>31</v>
       </c>
@@ -867,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>85</v>
       </c>
@@ -908,16 +915,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:AMK16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.3984375" style="1" customWidth="1"/>
@@ -927,10 +934,11 @@
     <col min="10" max="10" width="18.59765625" style="1" customWidth="1"/>
     <col min="11" max="11" width="44.19921875" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
-    <col min="13" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="11.59765625" style="1" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
@@ -968,7 +976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
@@ -994,10 +1002,10 @@
         <v>47</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>48</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>53</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>57</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>61</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>67</v>
       </c>
@@ -1157,7 +1165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>71</v>
       </c>
@@ -1189,7 +1197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>75</v>
       </c>
@@ -1218,7 +1226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>84</v>
       </c>
@@ -1262,24 +1270,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A7:AMK14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:G14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="44" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.19921875" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1293,7 +1301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1301,7 +1309,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>53</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>57</v>
       </c>
@@ -1317,7 +1325,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>61</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>67</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>71</v>
       </c>
@@ -1341,7 +1349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>84</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/test-manager-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F6E244BA-B5BA-0748-978F-71C0B5344BB3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
+    <sheet name="IAM_DASHBOARD_ROLE" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -145,16 +148,10 @@
     <t>PAGE_PERMISSION_CODE</t>
   </si>
   <si>
-    <t>PARENT_CODE</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
     <t>ICON</t>
-  </si>
-  <si>
-    <t>SORT</t>
   </si>
   <si>
     <t>choerodon.code.test-manager</t>
@@ -289,13 +286,98 @@
   <si>
     <t>choerodon.route.platform-reports.test-report</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@SORT</t>
+  </si>
+  <si>
+    <t>@SORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@PARENT_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_DASHBOARD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>NAMESPACE</t>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+  </si>
+  <si>
+    <t>NEED_ROLES</t>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+  </si>
+  <si>
+    <t>@POSITION</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestSurvey</t>
+  </si>
+  <si>
+    <t>测试进度</t>
+  </si>
+  <si>
+    <t>test_progress</t>
+  </si>
+  <si>
+    <t>TestProgress</t>
+  </si>
+  <si>
+    <t>执行进度</t>
+  </si>
+  <si>
+    <t>execution_schedule</t>
+  </si>
+  <si>
+    <t>IssueAndExecute</t>
+  </si>
+  <si>
+    <t>测试记录</t>
+  </si>
+  <si>
+    <t>test_record</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 4, "positionY": 2, "height": 4}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_DASHBOARD_ROLE</t>
+  </si>
+  <si>
+    <t>#DASHBOARD_CODE</t>
+  </si>
+  <si>
+    <t>#ROLE_CODE</t>
+  </si>
+  <si>
+    <t>role/organization/default/organization-member</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -310,6 +392,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -335,10 +423,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -640,14 +732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
@@ -665,7 +757,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -700,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -729,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -758,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -787,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -816,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -845,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>31</v>
       </c>
@@ -874,9 +966,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -915,14 +1007,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
@@ -938,7 +1030,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
@@ -960,60 +1052,60 @@
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
+      <c r="K7" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="O8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
         <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1022,30 +1114,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
         <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1054,30 +1146,30 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -1086,30 +1178,30 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -1118,30 +1210,30 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
       </c>
       <c r="I13" t="s">
         <v>28</v>
@@ -1150,30 +1242,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s">
-        <v>73</v>
       </c>
       <c r="I14" t="s">
         <v>31</v>
@@ -1182,77 +1274,77 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
         <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s">
-        <v>77</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O15">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -1270,14 +1362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
@@ -1287,74 +1379,74 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="9" spans="4:7">
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="F14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1366,4 +1458,331 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8819BF88-342A-464F-BD3B-511C36509D87}">
+  <dimension ref="D7:R11"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="3" width="11.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="24" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="28" style="5" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="5" customWidth="1"/>
+    <col min="14" max="15" width="11.59765625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.3984375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.59765625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="5" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="5" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:18">
+      <c r="D7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" ht="14">
+      <c r="E8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" ht="14">
+      <c r="E9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" ht="14">
+      <c r="E10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="5">
+        <v>3</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" ht="14">
+      <c r="E11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="5">
+        <v>4</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E35A6E-C055-3041-AFCA-B14F55000CB5}">
+  <dimension ref="D7:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="3" width="11.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.796875" style="5" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" style="5" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:7">
+      <c r="D7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="F8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="F9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="F10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="F11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/test-manager-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F6E244BA-B5BA-0748-978F-71C0B5344BB3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{414FA14F-8C84-8A40-A6FE-DA77D25D6F24}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
-    <sheet name="IAM_DASHBOARD_ROLE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -359,18 +358,6 @@
   <si>
     <t>{"width": 4, "positionX": 4, "positionY": 2, "height": 4}</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_DASHBOARD_ROLE</t>
-  </si>
-  <si>
-    <t>#DASHBOARD_CODE</t>
-  </si>
-  <si>
-    <t>#ROLE_CODE</t>
-  </si>
-  <si>
-    <t>role/organization/default/organization-member</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="106" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -1464,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8819BF88-342A-464F-BD3B-511C36509D87}">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1554,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>14</v>
@@ -1573,9 +1560,6 @@
       </c>
       <c r="Q8" s="5">
         <v>0</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="4:18" ht="14">
@@ -1598,7 +1582,7 @@
         <v>98</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>14</v>
@@ -1617,9 +1601,6 @@
       </c>
       <c r="Q9" s="5">
         <v>0</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="4:18" ht="14">
@@ -1642,7 +1623,7 @@
         <v>101</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>14</v>
@@ -1661,9 +1642,6 @@
       </c>
       <c r="Q10" s="5">
         <v>0</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="4:18" ht="14">
@@ -1686,7 +1664,7 @@
         <v>104</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>14</v>
@@ -1708,77 +1686,6 @@
       </c>
       <c r="R11" s="5" t="s">
         <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E35A6E-C055-3041-AFCA-B14F55000CB5}">
-  <dimension ref="D7:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="3" width="11.59765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="24.3984375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.796875" style="5" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" style="5" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:7">
-      <c r="D7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
-      <c r="F8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
-      <c r="F9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
-      <c r="F10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
-      <c r="F11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/test-manager-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{414FA14F-8C84-8A40-A6FE-DA77D25D6F24}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90462C88-2CBA-544D-A20B-8738904854B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="108">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>PAGE_PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
   </si>
   <si>
     <t>ICON</t>
@@ -357,6 +354,14 @@
   </si>
   <si>
     <t>{"width": 4, "positionX": 4, "positionY": 2, "height": 4}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RESOURCE_LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TYPE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +960,7 @@
     </row>
     <row r="14" spans="4:14">
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -997,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1040,45 +1045,45 @@
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="O8" s="1">
         <v>6</v>
@@ -1086,13 +1091,13 @@
     </row>
     <row r="9" spans="4:15">
       <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1101,16 +1106,16 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" t="s">
         <v>49</v>
-      </c>
-      <c r="N9" t="s">
-        <v>50</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -1118,13 +1123,13 @@
     </row>
     <row r="10" spans="4:15">
       <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1133,16 +1138,16 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -1150,13 +1155,13 @@
     </row>
     <row r="11" spans="4:15">
       <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -1165,16 +1170,16 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11">
         <v>4</v>
@@ -1182,13 +1187,13 @@
     </row>
     <row r="12" spans="4:15">
       <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -1197,16 +1202,16 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -1214,13 +1219,13 @@
     </row>
     <row r="13" spans="4:15">
       <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
       </c>
       <c r="I13" t="s">
         <v>28</v>
@@ -1229,16 +1234,16 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O13">
         <v>6</v>
@@ -1246,13 +1251,13 @@
     </row>
     <row r="14" spans="4:15">
       <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
         <v>69</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
       </c>
       <c r="I14" t="s">
         <v>31</v>
@@ -1261,16 +1266,16 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O14">
         <v>7</v>
@@ -1278,28 +1283,28 @@
     </row>
     <row r="15" spans="4:15">
       <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
         <v>73</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
         <v>75</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" t="s">
-        <v>76</v>
       </c>
       <c r="O15">
         <v>99</v>
@@ -1307,31 +1312,31 @@
     </row>
     <row r="16" spans="4:15">
       <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="s">
         <v>63</v>
-      </c>
-      <c r="H16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" t="s">
-        <v>64</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -1368,72 +1373,72 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="4:7">
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="F13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="4:7">
       <c r="F14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8819BF88-342A-464F-BD3B-511C36509D87}">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1476,7 +1481,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -1485,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
@@ -1494,63 +1499,63 @@
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="4:18" ht="14">
       <c r="E8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -1564,34 +1569,34 @@
     </row>
     <row r="9" spans="4:18" ht="14">
       <c r="E9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
@@ -1605,34 +1610,34 @@
     </row>
     <row r="10" spans="4:18" ht="14">
       <c r="E10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="I10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="O10" s="5">
         <v>3</v>
@@ -1646,34 +1651,34 @@
     </row>
     <row r="11" spans="4:18" ht="14">
       <c r="E11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="I11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
@@ -1685,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/test-manager-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90462C88-2CBA-544D-A20B-8738904854B8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78F2F334-2A45-4245-99F8-8B6ED257E24D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="110">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -362,6 +362,14 @@
   </si>
   <si>
     <t>@TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports.testreport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.platform-reports.testreport</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1003,7 +1011,7 @@
   <dimension ref="D7:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1011,7 +1019,7 @@
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
     <col min="9" max="9" width="48.59765625" style="1" customWidth="1"/>
@@ -1312,7 +1320,7 @@
     </row>
     <row r="16" spans="4:15">
       <c r="F16" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
@@ -1321,7 +1329,7 @@
         <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1696,5 +1704,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/test-manager-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78F2F334-2A45-4245-99F8-8B6ED257E24D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -280,10 +279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.route.platform-reports.test-report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>@SORT</t>
   </si>
   <si>
@@ -366,6 +361,10 @@
   </si>
   <si>
     <t>choerodon.code.platform-reports.testreport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.platform-reports.testreport</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -376,8 +375,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -732,14 +731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
@@ -757,7 +756,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -821,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -850,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -879,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -908,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -937,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>31</v>
       </c>
@@ -966,9 +965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1007,14 +1006,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
@@ -1030,7 +1029,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1053,22 +1052,22 @@
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>45</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>50</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>54</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>58</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>64</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>68</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>72</v>
       </c>
@@ -1318,9 +1317,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
@@ -1329,7 +1328,7 @@
         <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1362,24 +1361,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="44" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.19921875" style="1" customWidth="1"/>
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>77</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>50</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>54</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>58</v>
       </c>
@@ -1425,7 +1424,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>64</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>68</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>81</v>
       </c>
@@ -1461,14 +1460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8819BF88-342A-464F-BD3B-511C36509D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="5" customWidth="1"/>
@@ -1487,9 +1486,9 @@
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -1498,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
@@ -1507,13 +1506,13 @@
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>6</v>
@@ -1522,24 +1521,24 @@
         <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="R7" s="5" t="s">
+    </row>
+    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="E8" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="4:18" ht="14">
-      <c r="E8" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>40</v>
@@ -1548,7 +1547,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>40</v>
@@ -1563,7 +1562,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -1575,36 +1574,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14">
+    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
@@ -1616,36 +1615,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="14">
+    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="I10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="O10" s="5">
         <v>3</v>
@@ -1657,36 +1656,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="14">
+    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="I11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
@@ -1698,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/test-manager-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{769E058C-3CE5-6845-A2D0-77B8913F8E73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -273,10 +274,6 @@
   </si>
   <si>
     <t>test-manager-service.test-cycle.getTestCycle</t>
-  </si>
-  <si>
-    <t>choerodon.code.platform-reports.test-report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>@SORT</t>
@@ -375,8 +372,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -731,14 +728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="C5" zoomScale="157" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
@@ -756,7 +753,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -820,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -849,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -878,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -907,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -936,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>31</v>
       </c>
@@ -965,9 +962,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1006,14 +1003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="106" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
@@ -1029,7 +1026,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1052,22 +1049,22 @@
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1096,7 +1093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>45</v>
       </c>
@@ -1128,7 +1125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>50</v>
       </c>
@@ -1160,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>54</v>
       </c>
@@ -1192,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>58</v>
       </c>
@@ -1224,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>64</v>
       </c>
@@ -1256,7 +1253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>68</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
         <v>72</v>
       </c>
@@ -1317,9 +1314,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
@@ -1328,7 +1325,7 @@
         <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1361,14 +1358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="C3" zoomScale="143" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
@@ -1378,7 +1375,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>77</v>
       </c>
@@ -1392,7 +1389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1400,7 +1397,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>50</v>
       </c>
@@ -1408,7 +1405,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:7">
       <c r="F10" t="s">
         <v>54</v>
       </c>
@@ -1416,7 +1413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:7">
       <c r="F11" t="s">
         <v>58</v>
       </c>
@@ -1424,7 +1421,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:7">
       <c r="F12" t="s">
         <v>64</v>
       </c>
@@ -1432,7 +1429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:7">
       <c r="F13" t="s">
         <v>68</v>
       </c>
@@ -1440,9 +1437,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:7">
       <c r="F14" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
@@ -1460,14 +1457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="125" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="5" customWidth="1"/>
@@ -1486,9 +1483,9 @@
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:18">
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -1497,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
@@ -1506,13 +1503,13 @@
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>6</v>
@@ -1521,24 +1518,24 @@
         <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="R7" s="5" t="s">
+    </row>
+    <row r="8" spans="4:18" ht="14">
+      <c r="E8" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
-      <c r="E8" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>40</v>
@@ -1547,7 +1544,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>40</v>
@@ -1562,7 +1559,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -1574,36 +1571,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:18" ht="14">
       <c r="E9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
@@ -1615,36 +1612,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:18" ht="14">
       <c r="E10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="I10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="O10" s="5">
         <v>3</v>
@@ -1656,36 +1653,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:18" ht="14">
       <c r="E11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="I11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
@@ -1697,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1840" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32340" windowHeight="18980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,6 @@
     <t>test-manager-service.test-cycle.getTestCycle</t>
   </si>
   <si>
-    <t>choerodon.code.platform-reports.test-report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>@SORT</t>
   </si>
   <si>
@@ -402,6 +398,10 @@
   <si>
     <t>DEFAULT</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports.testreport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O16"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F16"/>
+    <sheetView topLeftCell="B2" zoomScale="106" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1090,19 +1090,19 @@
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1357,7 +1357,7 @@
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
@@ -1366,7 +1366,7 @@
         <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1402,7 +1402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1417,24 +1417,24 @@
   <sheetData>
     <row r="7" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
         <v>110</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>112</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>113</v>
-      </c>
-      <c r="H7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>39</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>45</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>50</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>54</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>58</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>64</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>68</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>72</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
@@ -1533,101 +1533,101 @@
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1641,7 @@
   <dimension ref="D7:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
@@ -1739,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1764,7 +1764,7 @@
   <sheetData>
     <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
@@ -1782,13 +1782,13 @@
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>6</v>
@@ -1797,24 +1797,24 @@
         <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>40</v>
@@ -1823,7 +1823,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>40</v>
@@ -1838,7 +1838,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -1852,22 +1852,22 @@
     </row>
     <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="I9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>13</v>
@@ -1876,10 +1876,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
@@ -1893,22 +1893,22 @@
     </row>
     <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="I10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>13</v>
@@ -1917,10 +1917,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="O10" s="5">
         <v>3</v>
@@ -1934,22 +1934,22 @@
     </row>
     <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="I11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>13</v>
@@ -1958,10 +1958,10 @@
         <v>14</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="220" yWindow="1840" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
-    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="5" r:id="rId3"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
+    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="118">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -370,13 +371,44 @@
   <si>
     <t>choerodon.route.platform-reports.testreport</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGILE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -400,6 +432,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1009,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1362,6 +1400,244 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="26.3984375" customWidth="1"/>
+    <col min="7" max="7" width="41.3984375" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1459,7 +1735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R11"/>
   <sheetViews>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32340" windowHeight="18980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -279,10 +279,6 @@
     <t>@SORT</t>
   </si>
   <si>
-    <t>@SORT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>@PARENT_CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -401,6 +397,10 @@
   </si>
   <si>
     <t>choerodon.code.platform-reports.testreport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SORT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1090,19 +1090,19 @@
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1131,7 +1131,7 @@
         <v>44</v>
       </c>
       <c r="O8" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.15">
@@ -1163,7 +1163,7 @@
         <v>49</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.15">
@@ -1195,7 +1195,7 @@
         <v>53</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.15">
@@ -1227,7 +1227,7 @@
         <v>57</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.15">
@@ -1259,7 +1259,7 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.15">
@@ -1291,7 +1291,7 @@
         <v>67</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.15">
@@ -1323,7 +1323,7 @@
         <v>71</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.15">
@@ -1352,12 +1352,12 @@
         <v>75</v>
       </c>
       <c r="O15">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
@@ -1366,7 +1366,7 @@
         <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1384,7 +1384,7 @@
         <v>63</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1417,24 +1417,24 @@
   <sheetData>
     <row r="7" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
         <v>109</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>110</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>111</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>112</v>
-      </c>
-      <c r="H7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>39</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>45</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>50</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>54</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>58</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>64</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>68</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>72</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
@@ -1533,101 +1533,101 @@
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
@@ -1764,7 +1764,7 @@
   <sheetData>
     <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
@@ -1782,13 +1782,13 @@
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>6</v>
@@ -1800,21 +1800,21 @@
         <v>81</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>40</v>
@@ -1823,7 +1823,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>40</v>
@@ -1838,7 +1838,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -1852,22 +1852,22 @@
     </row>
     <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="I9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>13</v>
@@ -1876,10 +1876,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
@@ -1893,22 +1893,22 @@
     </row>
     <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="I10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>13</v>
@@ -1917,10 +1917,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="O10" s="5">
         <v>3</v>
@@ -1934,22 +1934,22 @@
     </row>
     <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="I11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>13</v>
@@ -1958,10 +1958,10 @@
         <v>14</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/test-manager-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\test-manager-service\src\main\resources\script\front\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1836" windowWidth="32340" windowHeight="18984" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -186,9 +186,6 @@
     <t>choerodon.code.test-manager.manager</t>
   </si>
   <si>
-    <t>测试用例</t>
-  </si>
-  <si>
     <t>manager</t>
   </si>
   <si>
@@ -198,27 +195,15 @@
     <t>choerodon.code.test-manager.TestPlan</t>
   </si>
   <si>
-    <t>测试计划</t>
-  </si>
-  <si>
     <t>TestPlan</t>
   </si>
   <si>
-    <t>test_planning</t>
-  </si>
-  <si>
     <t>choerodon.code.test-manager.TestExecute</t>
   </si>
   <si>
-    <t>测试执行</t>
-  </si>
-  <si>
     <t>TestExecute</t>
   </si>
   <si>
-    <t>test_execution</t>
-  </si>
-  <si>
     <t>测试管理报表</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
   </si>
   <si>
     <t>auto test</t>
-  </si>
-  <si>
-    <t>auto_test</t>
   </si>
   <si>
     <t>choerodon.code.platform-reports</t>
@@ -402,13 +384,37 @@
   <si>
     <t>SORT</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$DEL</t>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>format_shapes</t>
+  </si>
+  <si>
+    <t>offline_pin</t>
+  </si>
+  <si>
+    <t>insert_invitation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -776,25 +782,25 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -829,7 +835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -945,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -974,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>31</v>
       </c>
@@ -1003,9 +1009,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1045,29 +1051,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O16"/>
+  <dimension ref="D7:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="44.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
-    <col min="13" max="15" width="11.59765625" style="1" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="9" max="9" width="48.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="11.5546875" style="1" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1090,22 +1096,25 @@
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="P7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:16">
       <c r="F9" t="s">
         <v>45</v>
       </c>
@@ -1165,16 +1174,19 @@
       <c r="O9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16">
       <c r="F10" t="s">
         <v>50</v>
       </c>
       <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
         <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1192,21 +1204,21 @@
         <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:16">
       <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -1224,21 +1236,21 @@
         <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="O11">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:16">
       <c r="F12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -1256,21 +1268,21 @@
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="O12">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:16">
       <c r="F13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
         <v>28</v>
@@ -1288,21 +1300,21 @@
         <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:16">
       <c r="F14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
         <v>31</v>
@@ -1320,21 +1332,21 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="O14">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:16">
       <c r="F15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -1349,30 +1361,30 @@
         <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O15">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:16">
       <c r="F16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
@@ -1381,7 +1393,7 @@
         <v>48</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O16">
         <v>30</v>
@@ -1406,35 +1418,35 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="6" max="6" width="26.3984375" customWidth="1"/>
-    <col min="7" max="7" width="41.3984375" customWidth="1"/>
-    <col min="8" max="8" width="26.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="13.8">
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="13.8">
       <c r="F8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>39</v>
@@ -1443,9 +1455,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8" ht="13.8">
       <c r="F9" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>45</v>
@@ -1454,9 +1466,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8" ht="13.8">
       <c r="F10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>50</v>
@@ -1465,169 +1477,169 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8" ht="13.8">
       <c r="F11" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:8" ht="13.8">
       <c r="F12" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:8" ht="13.8">
       <c r="F13" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8" ht="13.8">
       <c r="F14" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:8" ht="13.8">
       <c r="F15" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:8" ht="13.8">
       <c r="F16" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8" ht="13.8">
       <c r="F17" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" ht="13.8">
       <c r="F18" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" ht="13.8">
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" ht="13.8">
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" ht="13.8">
       <c r="F21" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" ht="13.8">
       <c r="F22" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" ht="13.8">
       <c r="F23" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" ht="13.8">
       <c r="F24" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" ht="13.8">
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1644,84 +1656,84 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="44" style="1" customWidth="1"/>
-    <col min="7" max="7" width="59.19921875" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="59.21875" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
       <c r="F11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
       <c r="F12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
       <c r="F13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
       <c r="F14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1743,28 +1755,28 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="23.796875" style="5" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="23.77734375" style="5" customWidth="1"/>
     <col min="9" max="10" width="24" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="28.59765625" style="5" customWidth="1"/>
-    <col min="14" max="15" width="11.59765625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19.3984375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.59765625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="46.3984375" style="5" customWidth="1"/>
-    <col min="19" max="1025" width="11.59765625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" style="5" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="46.44140625" style="5" customWidth="1"/>
+    <col min="19" max="1025" width="11.5546875" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:18">
       <c r="D7" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -1773,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
@@ -1782,13 +1794,13 @@
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>6</v>
@@ -1797,24 +1809,24 @@
         <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18">
       <c r="E8" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>40</v>
@@ -1823,7 +1835,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>40</v>
@@ -1838,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -1850,24 +1862,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:18">
       <c r="E9" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>13</v>
@@ -1876,10 +1888,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
@@ -1891,24 +1903,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:18">
       <c r="E10" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>13</v>
@@ -1917,10 +1929,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O10" s="5">
         <v>3</v>
@@ -1932,24 +1944,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:18">
       <c r="E11" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>13</v>
@@ -1958,10 +1970,10 @@
         <v>14</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
@@ -1973,12 +1985,12 @@
         <v>1</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1836" windowWidth="32340" windowHeight="18984" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1836" windowWidth="32340" windowHeight="18984" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="119">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -776,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:N14"/>
+  <dimension ref="D7:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -800,7 +800,7 @@
     <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -834,8 +834,11 @@
       <c r="N7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+      <c r="O7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -863,8 +866,11 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -922,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>28</v>
       </c>
@@ -980,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>31</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>101</v>
       </c>
@@ -1053,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="I1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1650,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G14"/>
+  <dimension ref="D7:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1666,7 +1672,7 @@
     <col min="8" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>71</v>
       </c>
@@ -1679,16 +1685,22 @@
       <c r="G7" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="4:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>50</v>
       </c>
@@ -1696,7 +1708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
         <v>53</v>
       </c>
@@ -1704,7 +1716,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
         <v>55</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="4:8">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
         <v>110</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1836" windowWidth="32340" windowHeight="18984" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1836" windowWidth="32340" windowHeight="18984" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -204,9 +204,6 @@
     <t>TestExecute</t>
   </si>
   <si>
-    <t>测试管理报表</t>
-  </si>
-  <si>
     <t>baseline-list_alt</t>
   </si>
   <si>
@@ -386,28 +383,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>$DEL</t>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>用例库</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$DEL</t>
-  </si>
-  <si>
-    <t>计划</t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>offline_pin</t>
+  </si>
+  <si>
+    <t>insert_invitation</t>
   </si>
   <si>
     <t>format_shapes</t>
-  </si>
-  <si>
-    <t>offline_pin</t>
-  </si>
-  <si>
-    <t>insert_invitation</t>
   </si>
 </sst>
 </file>
@@ -778,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -834,8 +835,8 @@
       <c r="N7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>113</v>
+      <c r="O7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1">
@@ -1017,7 +1018,7 @@
     </row>
     <row r="14" spans="4:15">
       <c r="F14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1059,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1102,22 +1103,22 @@
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="12.75" customHeight="1">
@@ -1189,7 +1190,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
         <v>51</v>
@@ -1221,7 +1222,7 @@
         <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -1242,7 +1243,7 @@
         <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O11">
         <v>30</v>
@@ -1253,7 +1254,7 @@
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1274,7 +1275,7 @@
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O12">
         <v>40</v>
@@ -1282,13 +1283,13 @@
     </row>
     <row r="13" spans="4:16">
       <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>60</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
       </c>
       <c r="I13" t="s">
         <v>28</v>
@@ -1306,7 +1307,7 @@
         <v>48</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13">
         <v>50</v>
@@ -1314,13 +1315,13 @@
     </row>
     <row r="14" spans="4:16">
       <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
       </c>
       <c r="I14" t="s">
         <v>31</v>
@@ -1338,7 +1339,7 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O14">
         <v>60</v>
@@ -1346,13 +1347,13 @@
     </row>
     <row r="15" spans="4:16">
       <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
         <v>66</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>67</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -1367,7 +1368,7 @@
         <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O15">
         <v>110</v>
@@ -1375,22 +1376,22 @@
     </row>
     <row r="16" spans="4:16">
       <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
-        <v>100</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
@@ -1399,7 +1400,7 @@
         <v>48</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O16">
         <v>30</v>
@@ -1435,24 +1436,24 @@
   <sheetData>
     <row r="7" spans="4:8" ht="13.8">
       <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>103</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>105</v>
-      </c>
-      <c r="H7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="13.8">
       <c r="F8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>39</v>
@@ -1463,7 +1464,7 @@
     </row>
     <row r="9" spans="4:8" ht="13.8">
       <c r="F9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>45</v>
@@ -1474,7 +1475,7 @@
     </row>
     <row r="10" spans="4:8" ht="13.8">
       <c r="F10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>50</v>
@@ -1485,7 +1486,7 @@
     </row>
     <row r="11" spans="4:8" ht="13.8">
       <c r="F11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>53</v>
@@ -1496,7 +1497,7 @@
     </row>
     <row r="12" spans="4:8" ht="13.8">
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>55</v>
@@ -1507,10 +1508,10 @@
     </row>
     <row r="13" spans="4:8" ht="13.8">
       <c r="F13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>14</v>
@@ -1518,10 +1519,10 @@
     </row>
     <row r="14" spans="4:8" ht="13.8">
       <c r="F14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>14</v>
@@ -1529,10 +1530,10 @@
     </row>
     <row r="15" spans="4:8" ht="13.8">
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>14</v>
@@ -1540,10 +1541,10 @@
     </row>
     <row r="16" spans="4:8" ht="13.8">
       <c r="F16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
@@ -1551,101 +1552,101 @@
     </row>
     <row r="17" spans="6:8" ht="13.8">
       <c r="F17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="6:8" ht="13.8">
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="6:8" ht="13.8">
       <c r="F19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="6:8" ht="13.8">
       <c r="F20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="6:8" ht="13.8">
       <c r="F21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="6:8" ht="13.8">
       <c r="F22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="6:8" ht="13.8">
       <c r="F23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="6:8" ht="13.8">
       <c r="F24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="6:8" ht="13.8">
       <c r="F25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1658,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1674,19 +1675,19 @@
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="12.75" customHeight="1">
@@ -1694,7 +1695,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1705,7 +1706,7 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="4:8">
@@ -1713,7 +1714,7 @@
         <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="4:8">
@@ -1721,31 +1722,31 @@
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="F14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1789,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
@@ -1797,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
@@ -1806,13 +1807,13 @@
         <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>6</v>
@@ -1821,24 +1822,24 @@
         <v>38</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="4:18">
       <c r="E8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>40</v>
@@ -1847,7 +1848,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>40</v>
@@ -1862,7 +1863,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -1876,22 +1877,22 @@
     </row>
     <row r="9" spans="4:18">
       <c r="E9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="I9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>13</v>
@@ -1900,10 +1901,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="O9" s="5">
         <v>2</v>
@@ -1917,22 +1918,22 @@
     </row>
     <row r="10" spans="4:18">
       <c r="E10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="I10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>13</v>
@@ -1941,10 +1942,10 @@
         <v>14</v>
       </c>
       <c r="M10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="O10" s="5">
         <v>3</v>
@@ -1958,22 +1959,22 @@
     </row>
     <row r="11" spans="4:18">
       <c r="E11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="I11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>13</v>
@@ -1982,10 +1983,10 @@
         <v>14</v>
       </c>
       <c r="M11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="O11" s="5">
         <v>4</v>
@@ -1997,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
